--- a/Salesforce.xlsx
+++ b/Salesforce.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_D37D1700BC2FDBFF2FCFE4ACB1F8DC12C8877A55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56443F9E-7EEF-4631-8DDF-DDC2750A9D7B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DC027E-A440-4ED4-A031-3A4497C7A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TrailHead" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>URL</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Salutation</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
     <t>Public</t>
   </si>
   <si>
@@ -113,22 +107,55 @@
     <t>auto</t>
   </si>
   <si>
-    <t>Account18</t>
-  </si>
-  <si>
-    <t>Account19</t>
-  </si>
-  <si>
-    <t>Account20</t>
-  </si>
-  <si>
-    <t>Account1854</t>
-  </si>
-  <si>
-    <t>Account1954</t>
-  </si>
-  <si>
-    <t>Account2055</t>
+    <t>Account18545253</t>
+  </si>
+  <si>
+    <t>Account19545353</t>
+  </si>
+  <si>
+    <t>Account20555454</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>SALUTATION</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>test47</t>
+  </si>
+  <si>
+    <t>test4754</t>
+  </si>
+  <si>
+    <t>test475450</t>
+  </si>
+  <si>
+    <t>test47545056</t>
+  </si>
+  <si>
+    <t>test4754505606</t>
+  </si>
+  <si>
+    <t>test475450560624</t>
+  </si>
+  <si>
+    <t>test47545056062438</t>
+  </si>
+  <si>
+    <t>test4754505606243845</t>
+  </si>
+  <si>
+    <t>auto45</t>
   </si>
 </sst>
 </file>
@@ -174,10 +201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,13 +597,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.83984375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
@@ -606,12 +632,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -626,42 +652,42 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -672,28 +698,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.078125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.96484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -725,42 +773,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Salesforce.xlsx
+++ b/Salesforce.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>URL</t>
   </si>
@@ -156,6 +156,15 @@
   </si>
   <si>
     <t>auto45</t>
+  </si>
+  <si>
+    <t>Account1854525327</t>
+  </si>
+  <si>
+    <t>Account1954535327</t>
+  </si>
+  <si>
+    <t>Account2055545428</t>
   </si>
 </sst>
 </file>
@@ -603,7 +612,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.53125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
@@ -632,7 +641,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -652,7 +661,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -672,7 +681,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
